--- a/500all/speech_level/speeches_CHRG-114hhrg97630.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97630.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="370">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400154</t>
   </si>
   <si>
-    <t>Bob Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Good morning. The Judiciary Committee will come to order.    And, without objection, the Chair is authorized to declare recesses of the Committee at any time.    We welcome everyone to this morning's hearing on the oversight of the U.S. Department of Justice. And I'll begin by recognizing myself for an opening statement.    Welcome, Attorney General Lynch, to your first appearance before the House Judiciary Committee since your confirmation earlier this year. And we are very pleased to have you here with us.    Last week, we witnessed horrific terrorist attacks in Paris which claimed the lives of over 120 innocent civilians and for which ISIS has taken credit. Our thoughts and prayers remain with the French people, and we mourn with them.    At the same time, these terrorist attacks are a stark reminder that ISIS poses a threat to our allies and America. Yet this reality is not clearly seen by our President. Just hours before the attack, President Obama boasted that ISIS is contained. ISIS is not contained in Syria, it is not contained in Europe, and we know ISIS is continuing its campaign of propaganda here in the U.S.    We know from the Paris attacks that at least one of the perpetrators was registered as a refugee from Syria in countries through which he traveled on his way to France. Just last month, FBI Director Comey told this Committee that the U.S. refugee vetting process is not adequate to guarantee that Syrians referred for resettlement in the U.S. are not terrorists who plan to harm us. Yet the President presses on with his plan to resettle at least 10,000 Syrian refugees during this fiscal year alone.    I look forward to hearing your thoughts on this issue, considering that the top counterterrorism investigator in the U.S. consistently states that the databases and law enforcement resources are not available to properly vet Syrians.    Furthermore, reports indicate that, despite repeated congressional action to the contrary, this Administration thinks terrorists at Guantanamo Bay, who are cut from the same cloth as the Paris attackers and many of whom are deemed too dangerous for release to foreign countries, should be brought to the United States. Transferring these combatants to the United States will only increase their odds of being released inside the U.S.    These public and national security concerns, coupled with unanswered questions about the cost and logistics of bringing detainees into the U.S., should cause the Administration to hit ``pause'' on its reckless decision to close its Guantanamo detention facility. Enemy combatants should remain outside of the United States, where they can be detained away from our communities and without needlessly jeopardizing the safety and security of the American people.    In addition to the mounting national security threats facing the Department of Justice, I would also like to focus on the need for an impartial Justice Department. Americans have become more and more suspicious that their government agencies are biased. To understand this, one need look no further than the well-founded allegations that the IRS targeted conservative groups for extra scrutiny.    After numerous appeals to appoint a special counsel to investigate this, last month the Justice Department announced that no criminal prosecution would be brought against IRS personnel in connection with this matter. It is not difficult to understand why a special counsel was needed, given that only those organizations opposed to the President's overreaching agenda were targeting by high-ranking IRS officials. Apparently, officials at the IRS share Secretary Clinton's abhorrent notion that Republicans are ``the enemy.''    I am profoundly disturbed the Administration's handling of this matter. At every turn, President Obama and Administration officials repeatedly and publicly undermined the investigation. When the House of Representatives took the responsible step of calling for the appointment of a special counsel to investigate the matter, our concerns and those of the individuals targeted by the IRS went unresolved by the Administration.    Madam Attorney General, now that your department has concluded its investigation, I look forward to discussing the Department's decision with you in greater detail.    Given the controversy surrounding the Administration's mishandling of the IRS targeting scandal, it is critical that the Justice Department clearly demonstrate to the American people that it will handle with impartiality its investigation surrounding former Secretary of State Hillary Clinton's use of a private e-mail server for official purposes.    Earlier this year, two inspectors general reported that classified information was contained within the private e-mails of former Secretary of State Hillary Clinton and have referred the matter to the Justice Department. During his appearance before the Committee last month, FBI Director Comey vowed that this investigation will be conducted ``promptly, professionally, and independently.'' Rest assured, Congress and the American people will hold both the Bureau and the Department to this standard.    The Committee also remains concerned that the Department is subverting Congress' budget authority by using settlements to funnel money to third-party interest groups. The concern is institutional and nonpartisan. Yet, rather than suspend the practice, DOJ has expanded it, while quietly obstructing the Committee's investigation.    Last week, the Department finally produced a small subset of relevant documents that the Committee requested 11 months ago. I would like to know, Madam Attorney General, what you, as an experienced prosecutor, would do if a large corporation behaved this way in an investigation.    As we sit with you today, Attorney General Lynch, law enforcement agencies across the country face profound challenges. Thirty-one police officers have been shot to death this year alone. In many places, officers are understandably asking whether it is worth pursuing violent criminals or otherwise putting themselves in harm's way, less they be the targets of intentional violence or community backlash.    Force must be used appropriately, and police officers must take proper steps to protect innocent civilians. However, irresponsible anti-police activity from many in the advocacy community and the Justice Department's ongoing efforts to micromanage State and local police agencies have only served to exacerbate the divide between police and citizens. This trend cannot continue.    Many American cities have seen a spike in violent crime. In Baltimore, homicides are up 71 percent. In August of this year, the number of murders here in Washington, D.C., already matched the number for all of 2014. Other cities have seen similar increases in violent crime. Despite these grim statistics, however, the Obama administration has continued to support initiatives that will only exacerbate this violence.    On November 1 of this year, nearly 6,000 Federal drug offenders were released from prison, pursuant to a 2014 Sentencing Commission amendment which the Justice Department supported. Over the next 2 years, some additional 10,000 offenders will be released early. This ill-advised amendment applies without regard to an inmate's criminal history and will result in the release of some dangerous violent criminals as well as illegal criminal aliens.    As you know, the Committee has introduced bipartisan legislation to institute meaningful sentencing reform while preventing release of serious violent criminals.    Speaking of releasing violent criminals, the murder of Kate Steinle in San Francisco earlier this year is a tragic reminder that the lack of appropriate immigration enforcement in our Nation today and the reckless sanctuary policies in many cities across the country can have deadly consequences.    It is not enough for Administration officials to pay lip service to the problems presented by sanctuary cities. Federal agencies, including the Justice Department, must take meaningful steps to ensure that criminal aliens released from Federal custody are promptly deported.    Attorney General Lynch, I look forward to hearing your views on all these important topics today, as well as on other issues of significance to the Justice Department and to our Nation.    Thank you.    And now I'm pleased to recognize the Ranking Member of the Committee, the gentleman from Michigan, Mr. Conyers, for his opening statement.</t>
   </si>
   <si>
     <t>400080</t>
   </si>
   <si>
-    <t>John Conyers, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Chairman Goodlatte. Your opening statement could be the basis of a hearing all of its own. And I appreciate your views.    Madam Attorney General, welcome to the House Judiciary Committee.    Nearly 7 months ago, after much delay in the Senate, you took over the Department of Justice with not one but two tours of duty at the U.S. Attorney for the Eastern District of New York. You are unquestionably the right leader at the right time for the important work of the Department of Justice.    Nowhere is your leadership more important than in national security. The attacks on Paris, France, leave no doubt that our most pressing mission, yours and ours, remains protecting the American people.    And, unfortunately, history shows that tragic events like these are followed by calls for drastic action. Already we have heard proposals to undo encryption, to roll back surveillance reform, and deport some of the most vulnerable among us. I urge restraint in these matters, Madam Attorney General. At this time, we have very little information about how the attacks were carried out.    Rather than use these events as an excuse to advance policies that otherwise betray our values, I urge the intelligence community, including the Department of Justice, to focus on the most effective tools in our toolbox: targeted surveillance, targeted investigation, and smart policing.    Back at home, you have cultivated strong relationships in the police community, but you are not afraid to call out bad behavior or to prosecute police officers when circumstances warrant. That experience will prove invaluable as the Department, along with this Committee, takes its next steps on criminal justice reform.    Under your leadership, the Civil Rights Division continues its work with police departments around the country to ensure that State and local policing practices comport with the Constitution.    The Office of Juvenile Justice is also working hard to disrupt what you've called the cycle of criminality and incarceration. I commend you for your work on this front, and I look forward to our partnership as this Committee moves forward with its own package of criminal justice reforms.    Another area where we look to you for leadership is enforcement of voting rights. Earlier this year, observing the 50th anniversary of the Voting Rights Act, you remarked, ``It is the lesson of every generation that the price of freedom is constant vigilance. Because opponents of free and fair access to the voting booth have neither retreated nor surrendered.''    The unfortunate truth of that statement plays out across the country today, no place more vividly than in the State of Alabama, where officials plan to close 31 driver's license offices across the State, including those in every county in which African-Americans make up more than 75 percent of registered voters. Coupled with Alabama's strict new voter ID law, these closings will make it even harder for many citizens to obtain the identification now required to cast a vote.    The discriminatory impact of this plan plays out in other ways too. Imagine having to drive hundreds of miles across rural Alabama to renew your driver's license. We know that this burden will weigh heaviest on the State's poorest citizens.    Borrowing again from your words, ``It is incumbent on all of us to stand up, to speak out, and to make clear that no end is worth the means of disenfranchisement, no small-minded policy is worth the cheapening of our democracy.''    Finally, Madam Attorney General, I want to comment on the virtue of your being a new leader at the Department of Justice ready to make a fresh start with this Committee. Today, you will hear questions, no doubt, about Benghazi, Planned Parenthood, Solyndra, Operation Fast and Furious, and Lois Lerner at the IRS. These are not matters that affect a whole lot of our constituents, but you will hear questions about them and comments anyway. My advice to you--that you don't need--is stick to the facts and the law, and you'll be fine.    We know that some Members are displeased with the outcome of the Department's investigation into the Lois Lerner matter, but we also know that your investigators were as thorough as can be. They conducted over 100 interviews, collected more than 1 million pages of documents, and closely analyzed almost 500 applications for tax-exempt status.    Some Members may wish your predecessor had appointed a special counsel to investigate the matter, but both the plain text of the applicable regulations and the congressional research tell us otherwise. The facts of the case did not involve senior Administration officials. They did not present a conflict of interest to the Department of Justice. And so the appointment of a special counsel was simply not appropriate in this matter.    Too often, your predecessor, who I still admire, found himself the target of personal insults in this Committee and elsewhere. And I like to think that all of us in this room and on this Committee regret the frequent attacks on his character or at least realize that those attacks were almost entirely unproductive.    We have a chance to start over today. We can do better. Progressives and conservatives, Congress and the Administration, there is so much common ground between us to be explored, particularly in the work of the Department of Justice. And so I am so glad that you're here with us today, and I look forward to your testimony.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -136,9 +130,6 @@
     <t>400365</t>
   </si>
   <si>
-    <t>F. James Sensenbrenner, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. Thank you very much.    Madam Attorney General, welcome. We hope to be seeing you for a bit, at least for the next 14 months.    I have a question relative to the issue of the Guantanamo detainees. Congress recently passed and the President is expected to sign into law legislation that explicitly prohibits the use of Federal funds to move detainees from Guantanamo Bay to the United States.    Former White House Counsel Gregory Craig recently wrote an op-ed arguing that the law is unconstitutional and that President Obama can legally ignore it. Since you are America's top lawyer, do you believe that President Obama could legally ignore legislation prohibiting the transfer of detainees to American soil?    Attorney General Lynch. Thank you, Mr. Congressman.    What I would say on this issue certainly is, as the Administration has stated, the closure of Guantanamo Bay is something that is part of the Administration's policy, and the Department of Justice supports that, as well.    At this point in time, I believe the current state of the law is that individuals are not transferred from Guantanamo to U.S. shores. That position is reiterated by the legislation that you mention. And my understanding, as you indicated, is that I do believe the President has indicated that he would sign that.    And, certainly, it's the position of the Department of Justice that we would follow the law of the land in regard to that issue.</t>
   </si>
   <si>
@@ -160,9 +151,6 @@
     <t>400289</t>
   </si>
   <si>
-    <t>Jerrold Nadler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nadler. I thank the Chairman.    And I thank the Attorney General.    Madam Attorney General, in the immediate aftermath of the terrorist attacks on September 11, 2001, the Department of Justice established and oversaw a victims' compensation fund that provided more than $7 billion to families who lost loved ones on that day.    In the years after the attacks, it became clear that thousands of first responders and survivors continued to suffer major health consequences from the attacks and their aftermath. Thousands of lawsuits were filed against contractors and others by these victims.    In 2010, Congress enacted the James Zadroga Act, which provided essential healthcare services to those in need and reopened the Victim Compensation Fund to those families whose losses became apparent after September 11, providing them an alternative to litigation. In the last 5 years, the Victim Compensation Fund has provided nearly 6,300 first responders and survivors with $1.4 billion in compensation determinations. Since we enacted the bill, I am aware of no further 9/11-related lawsuits.    Despite its current success, on September 30, 2015, Congress allowed the VCF and the World Trade Center Health Program to expire. Fortunately, there is legislation pending in the House to permanently reauthorize the Victim Compensation Fund and the World Trade Center Health Program. The bill now has the cosponsorship of 247 cosponsors, a majority of the House, including more than 50 Republicans, and a filibuster-proof majority in the Senate, with 65 cosponsors.    If Congress fails to act, thousands of first responders and survivors will lose access to compensation on which they depend to support their families when they are tragically gone. The VCF is preparing to shutter its operations once it has processed existing claims. If the VCF is not fully funded and reauthorized, the first responders and survivors who have already received the notice of their compensation could actually see that amount cut by up to 50 percent.    We are literally talking about taking money out of the hands of a sick police officer. I am deeply saddened to think that is how Congress plans to remember the heroes of 9/11.    Attorney General Lynch, do you agree that this is not the proper way to honor the heroes of 9/11? Don't you think that 9/11 survivors and the firefighters and police officers who risked their own lives to save them and have suffered health consequences because of it deserve the full support of the American people and a fully funded Victim Compensation Fund?    Attorney General Lynch. Thank you, Mr. Congressman.    This is, indeed, an important issue. Of course, we will always be deeply indebted to those first responders and brave men and women who risked their lives to search for and recover victims, to remove debris at the site, to carry out the recovery efforts at Ground Zero at 9/11.    It certainly is an important issue to me both as Attorney General and as someone who was in New York on 9/11 and who had friends and former colleagues who were in that group of those who were on the scene and who were involved in those activities. This is, in fact, a serious issue for those who were affected by it, and I greatly appreciate your expression of compassion for those who have fallen ill.    With respect to the bill that is currently pending, certainly, on behalf of the Department of Justice, we would do all that we could to work with you to make sure if there were any questions or issues they could be addressed. And we hope that there would be none.    This is, indeed, an important issue. And, again, I think it is something that deserves, certainly, strong review, serious consideration. And please let us know how the Department can be of assistance to any of the Members as they consider this important issue.</t>
   </si>
   <si>
@@ -187,9 +175,6 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman.    Madam Attorney General, under this Administration the number of sanctuary cities has doubled to about 340 jurisdictions. As a result, many innocent Americans have been killed. What are you doing to discourage jurisdictions from claiming sanctuary status?    Attorney General Lynch. I'm sorry, the last part of your question, Congressman?</t>
   </si>
   <si>
@@ -244,9 +229,6 @@
     <t>400245</t>
   </si>
   <si>
-    <t>Zoe Lofgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lofgren. Thank you, Mr. Chairman.    And thank you, Attorney General. It's a pleasure to have you here, and I look forward to working with you, not only today, but in the months ahead.    As you likely know, I am on the Immigration Subcommittee and I follow closely what your Department is doing in that arena. Your predecessor, Attorney General Holder, testified in 2013 before the Senate, and this is a direct quote: ``It is inexcusable that young kids, 6, 7 year olds, 14 year olds, have immigration decisions made on their behalf against them and they're not represented by counsel.''    Now, in July of this year, the American Immigration Council and several other organizations filed a class action lawsuit in District Court in the Western District of Washington challenging the validity of removal proceedings for children without appointed counsel. And their argument was that an 8-year-old couldn't receive a full and fair hearing in the immigration court without representation.    As you know, I'm sure, the Administration has made efforts to provide counsel to small children by funding nonprofit groups, but the Assistant Attorney General who argued, I think a Mr. Leon Fresco, actually argued contrary to that in the District Court. And I'm wondering if the Department's position has changed since Mr. Holder left the Department and whether you think it could meet due process to have an 8-year-old who speaks only Spanish appear in immigration court without a lawyer and be able to argue the nuances of immigration law and asylum law. Do you think that meets due process requirements?    Attorney General Lynch. Thank you, Congresswoman.    With respect to the argument that was made on the issue, of course I'd have to review those pleadings to understand the specific context and whether or not there was an appropriations issue involved as to whether----</t>
   </si>
   <si>
@@ -274,9 +256,6 @@
     <t>400196</t>
   </si>
   <si>
-    <t>Darrell E. Issa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Issa. Thank you, Mr. Chairman.    General Lynch, as you may recall, a woman working for the IRS named Lois Lerner was held in contempt by the Oversight and Government Reform Committee and the full House and referred to the Department of Justice under your predecessor. Do you recall that?    Attorney General Lynch. Sir, I am aware of the reports of that. Thank you, sir.</t>
   </si>
   <si>
@@ -334,9 +313,6 @@
     <t>400199</t>
   </si>
   <si>
-    <t>Sheila Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Mr. Chairman and Ranking Member, thank you very much.    General Lynch, thank you so very much for your service. And might I as well thank your staff, who have always been responsive to me in particular and to the Members of this Committee as we've tried to work toward justice for the people of the United States.    A moment, I just want to as I begin my questioning say to you I apologize, there are going to be pointed questions, that if I can get yes and no, we'll work on it, it would be helpful so that I can get through them. As I do so, let me offer to the people of France again our deepest sympathy.    This Committee in particular is well aware of the impact of terrorism. Our Subcommittee on Crime is a Subcommittee that is Crime, Terrorism, Homeland Security, and Investigations. And so I offer it to the people of France, and certainly we stand united with them as the Justice Department through the President of the United States have been already working.    To that point I have a headline that says, ``U.S. Justice Department working with French authorities after attacks,'' which is a good thing, and I say that because there has been a massive race by various States to make pronouncements of blocking Syrian refugees, people seeking asylum. And I understand the fear. I hope we do not operate under fear.    So my question is, is your confidence in procedures. And I would suggest that there be an interagency task force, as I hope that we will have a task force either out of this Committee, the Judiciary Committee, on Paris, or either, I know that there is one recommended by the majority, but that we will have one that is bipartisan on this issue to be helpful to the Administration.    Do you feel confident in our processes as a partner to this process of being able to discern who amongst those suffering people would be a bad guy? I understand we're doing 10,000, I think that's the number the President has offered. Do you perceive your processes to be assured and sure?    Attorney General Lynch. Thank you, Congresswoman. And I do look forward to continuing this dialogue with you on this important point.    We do have robust screening measures in place. They include not just databases, but also individual interviews, biometric data. We gather all relevant information about refugees from all countries, because our first goal is the protection and safety of the American people, as well as carrying out the compassionate nature also of the American people.</t>
   </si>
   <si>
@@ -370,9 +346,6 @@
     <t>400137</t>
   </si>
   <si>
-    <t>J. Randy Forbes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Forbes. Chairman, thank you.    Madam Attorney General, thank you go for being here today.    Attorney General Lynch. Good morning.</t>
   </si>
   <si>
@@ -436,9 +409,6 @@
     <t>412236</t>
   </si>
   <si>
-    <t>Steve Cohen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cohen. Thank you, Mr. Chair. And.    I'm going to be like Ms. Lee and ask you a lot of questions because there's a lot on my mind.    Attorney General Lynch. I'm sorry, sir, I can't hear you.</t>
   </si>
   <si>
@@ -472,18 +442,12 @@
     <t>412473</t>
   </si>
   <si>
-    <t>Trey Gowdy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gowdy [presiding]. And on that note, the gentleman's time has expired. And we will recognize the gentleman from Ohio, Mr. Jordan.</t>
   </si>
   <si>
     <t>412226</t>
   </si>
   <si>
-    <t>Jim Jordan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jordan. Thank you, Mr. Chairman.    Attorney General Lynch, on February 2, 2014, Kate Duval, chief counsel to IRS Commissioner John Koskinen, learned that Ms. Lois Lerner's hard drive had crashed and they didn't have all her e-mails. Mr. Koskinen and the IRS waited until June of that year, June of 2014, to tell Congress.    In that 4-month time period between when they learned that her hard drive had crashed and they didn't have all her e-mails and June when they told us, in that 4-month time period Mr. Koskinen testified twice in front of Congress and did not disclose the fact that they knew her hard drive had crashed.    One month later, after they learned her hard drive had crashed, in March of 2014, March 4 of 2014, the IRS destroys 422 backup tapes. Just so you understand the fact pattern, they know on February 2 Lois Lerner's hard drive has crashed, they don't have all her e-mails. Thirty days later they destroy 422 backup tapes. And they destroy those 422 backup tapes with three preservation orders in place. In fact, one of those preservation orders came from the Justice Department.    Ten months before that, you had told them, hey, preserve all the documents, preserve all the e-mails, we've got an investigation going on. There were two other preservation orders as well. So three preservation orders and two subpoenas.    Now, that sure looks likes John Koskinen and the Internal Revenue Service concealed information and destroyed information. But just last month you guys sent us a letter telling us you're not going to prosecute anyone in the IRS targeting scandal. And you specifically say in that letter: Our investigation revealed no evidence to deliberately conceal or destroy information.    So here's what I can't figure out. They learn on February 2, 2014, that Lois Lerner's hard drive had crashed and they don't have all her e-mails. Thirty days later, with three preservation orders and two subpoenas in place, they destroy the backup tapes. So if that's not evidence of deliberately concealing and destroying information, what is it?    Attorney General Lynch. Thank you, Congressman.    With respect to the matter that you've raised, as we set forth in our letter, we did review the issues surrounding Ms. Lerner's e-mails and the backup tapes. As with every criminal investigation, we are looking for evidence of criminal intent and we are looking for evidence of the specific reasons for why the actions that you note----</t>
   </si>
   <si>
@@ -526,9 +490,6 @@
     <t>412199</t>
   </si>
   <si>
-    <t>Henry C. "Hank" Johnson, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    General Lynch, I want to commend you and the Department of Justice on the fact that 70 individuals have been charged since 2013 for conduct related to foreign fighter activity and homegrown violent extremism.    General Lynch, this Committee has previously heard how ISIL and other terrorist organizations field potential recruits in publicly accessible social networking sites via encrypted messaging platforms and also voice over Internet apps. Are these encrypted private messaging platforms and also voice over Internet apps hampering the ability of the Department to quickly ascertain and address threats to national security? And if so, in what ways?    Attorney General Lynch. Well, Congressman, thank you for the question. Certainly when individuals choose to move from open means of communication to those that are encrypted it can cause a disruption in our ability to use lawful legal process to intercept those communications and does give us concern about being able to gather the evidence that we need to continue in our ongoing mission for the protection of the American people.</t>
   </si>
   <si>
@@ -550,9 +511,6 @@
     <t>400651</t>
   </si>
   <si>
-    <t>Louie Gohmert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you, Mr. Chair.    And thank you, Attorney General. Appreciate your being here.    Obviously people are rather sensitive to potential terrorism, especially since ISIS is known for keeping their word when they make threats, at least as often as they can. And we had a witness some time back, the FBI Director at that time, Director Mueller, and I was asking him about investigations at the mosque in Boston where the Tsarnaevs attended, and he indicated that the FBI had an outreach program with that mosque where they would commune together, but they never actually investigated at the mosque whether or not the Tsarnaevs had been radicalized, even after Russia gave the FBI a heads-up that the older Tsarnaev had been radicalized. They never asked any questions of the people there.    I know I've been through materials with FBI agents that have been cleaned out from the teaching materials at the Justice Department, and for some ridiculous reason they were classified, so we had to do it in a closed setting. But it appears to me that FBI agents, Justice officials, are not even being allowed to be taught what it is that radical Islamists believe, not even perhaps that Osama bin Laden indicated that the Egyptian martyr Muslim Brotherhood member Qutb wrote ``Milestones'' that actually helped radicalize him. Nobody knew enough to go to the mosque and ask, has Tsarnaev been reading Qutb, have you seen him talking about or heard him talking about ``Milestones''? It seems like we've blinded, as one intelligence official told me, we've blinded ourselves of the ability to see our enemy.    So I was also surprised, since Director Mueller was FBI Director after al-Amoudi was arrested, based on his understanding the information that Britain gave us, but he's doing 23 years for supporting terrorism. He didn't know al-Amoudi is the one was at the bottom of starting that mosque.    We know that apparently al-Amoudi helped in both the Clinton and Bush White House find Muslims that al-Amoudi said could be trusted to work in those White Houses. And I'm just wondering, since we now know that al-Amoudi supported terrorism, we know that at least the Tsarnaevs, perhaps others who have been radicalized worshipped at that mosque, has the outreach program been terminated with the al-Amoudi-begun mosque in Boston? And has there been any investigation into people that al-Amoudi placed in the Clinton and Bush White House, now that we know he supported terrorism, he's doing 23 years? Do you know of any such investigation?    Attorney General Lynch. Mr. Congressman, I don't have the information that you're requesting, but certainly what I can say is that you have touched upon the issue that all of us in law enforcement deal with as we work not only to protect the American people, but to counter violent extremism that does pull in young people like the Tsarnaevs.</t>
   </si>
   <si>
@@ -571,9 +529,6 @@
     <t>412306</t>
   </si>
   <si>
-    <t>Pedro R. Pierluisi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pierluisi. Thank you, Mr. Chairman.    Welcome, General Lynch.    I would like to address DOJ's mission to prevent and prosecute violent crime. And naturally, as Puerto Rico's only representative in Congress, I want to concentrate on the U.S. territory. This is the same topic I raised with General Holder each time he appeared before this Committee.    Broadly speaking, when it comes to violent crime, the narrative in Puerto Rico has been positive lately. In 2011, there were 1,136 murders in Puerto Rico, over 3 a day, the highest in our history. Most of these homicides were related to the drug trade.    So I pushed DHS and DOJ extremely hard to dedicate more personnel and resources to Puerto Rico. DHS, including the Coast Guard, ICE, CBP, responded to this pressure. DOJ responded to, but to a lesser extent than DHS.    These enhanced Federal efforts have born fruit. The number of homicides in Puerto Rico has decreased significantly every year. In 2015 to date, there have been 508 murders. If the current trend continues, there will be about half as many homicides in Puerto Rico this year versus 4 years ago. That is a remarkable statistic we should be proud of.    But we're fighting a determined enemy and the gains we have achieved can be easily reversed unless our efforts are sustained and strengthened. And the fact is, despite recent improvements, Puerto Rico still has a homicide rate far higher than any State. Yet, my staff and I have found it difficult to obtain answers to basic questions about DOJ efforts in the territory. So I want a Member-level briefing on this subject as soon as possible.    In the meantime, I have three specific questions for you today. I will ask them all at once and then give you the time to answer them.    First, the U.S. Attorney's Office in Puerto Rico has a very high criminal caseload. Part of the reason is that they are prosecuting a number of cases that in the States would likely be prosecuted in State or local courts as opposed to Federal court.    I'm aware that the U.S. Attorney's Office in Puerto Rico has entered into an MOU with the Puerto Rico Department of Justice so that State prosecutors can be detailed to the U.S. Attorney's Office to work on Federal cases. While I support this arrangement--I'm a former AG, and in my time in the nineties I did something similar--I'm concerned that there are not enough Federal prosecutors assigned to Puerto Rico in light of the caseload.    Have you looked at this issue? And if not, can you please look at it and have your staff brief me on your specific findings? Again, number of assistant U.S. attorneys in Puerto Rico.    Second, as you have stated here today, DOJ has a comprehensive program, called the Violence Reduction Network, designed to reduce violence in some of our country's most violent cities. I believe there are cities in Puerto Rico that are suitable candidates for this program and I urge DOJ to select a Puerto Rico site in 2016. Can you assure me that Puerto Rico will receive due consideration for inclusion in the VRN program or any other DOJ program designed to combat violent crime?    Finally, The New York Times just reported--or recently reported--that in 2014 more guns used to commit crimes in Puerto Rico were purchased in Florida than in Puerto Rico itself. What is DOJ doing to reduce the number of guns being unlawfully transported from Florida and other States to Puerto Rico and being used to commit crimes in my turf?    Thank you.    Attorney General Lynch. Thank you, Congressman.    And I am happy, indeed, to have my staff arrange to provide further information for you on all of these points.    I can certainly tell you that we are looking to expand our efforts under that MOU. And with respect to specific numbers, I would like to have the opportunity to look into that and provide you with a briefing on that.    With respect to the firearms trafficking between the mainland Florida and Puerto Rico, we do have a very strong presence on the island of ATF, along with, as you know, a host of other agencies. And we are looking at ways to deal with that, as well. We also certainly will give Puerto Rican cities due consideration in the Violence Reduction Network selections for the upcoming year.    I would note, however, that we are also committed, even beyond the Violence Reduction Network, to working with local authorities in Puerto Rico, as well as the U.S. attorney, to deal with the situation there.    As you note, the homicide rate is down significantly, but it is still far too high. And that places the residents of Puerto Rico in an unreasonable and untenable situation. And we feel it is our obligation and responsibility to do all we can to ameliorate that.</t>
   </si>
   <si>
@@ -586,9 +541,6 @@
     <t>400141</t>
   </si>
   <si>
-    <t>Trent Franks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Franks. Well, thank you, Mr. Chairman.    And thank you, Attorney General Lynch, for being here.    General Lynch, several videos, as you know, that have been talked about quite a bit have been released that show corporate officers and employees of Planned Parenthood casually discussing their practice of harvesting little baby parts from the many hundreds of thousands of innocent babies they kill in their clinics across this Nation every year.    And the videos reveal that some babies are born intact, which is the most, I understand, desirable and marketable state of the baby's body for people in that business because the little body parts haven't been damaged by the abortion procedure. And because of that incentive, some of these little babies are born alive.    And I'm wondering, has the Department investigated or enforced any cases of born-alive children being killed from their abortion survivors?    Attorney General Lynch. Congressman, with respect to the issue that you raise, you're asking about born alive----</t>
   </si>
   <si>
@@ -628,9 +580,6 @@
     <t>412379</t>
   </si>
   <si>
-    <t>Judy Chu</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Chu. Attorney General, I want to bring your attention to the cases of Chinese-American scientists Guoqing Cao, Shuyu Li, Sherry Chen, and Xiaoxing Xi. All of these named individuals, despite their ethnic names, are American citizens, and all of them have been profiled, suspected, and treated as spies by our Nation's government within the past 2 years, only to have all charges dropped.    And these are only the cases that actually reached national headlines. There could be countless more.    Two of these individuals, Sherry Chen and Xiaoxing Xi, are here at today's hearing, sitting two rows behind you. I want to take a moment to share their stories with you.    Dr. Xiaoxing Xi is a professor and the interim chairman of the physics department of Temple University. In May of this year, on a day that seemed like any other ordinary day, Dr. Xi and his family were woken up at the break of dawn by almost a dozen armed FBI agents in his home pointing guns at him. In his pajamas, he was handcuffed and arrested in front of his wife, two young daughters, and neighbors.    After months of investigation, after losing his position as chair of the physics department, after the emotional trauma that he and all his family endured, all of the charges against him were dropped. It turns out the technology that the government thought Professor Xi was sharing with China wasn't the right technology to begin with.    We also have Sherry Chen, who, like Dr. Xi, was wrongfully profiled and suspected of being a spy for China. She was arrested by six FBI officers and humiliatingly handcuffed in her own office at the National Weather Service. After months of investigation and having her reputation smeared, all the charges against her were dropped. Not only is she suffering from mental and emotional turmoil that this investigation has caused, she is now fighting for her job as a hydrologist within the Department of Commerce.    These Chinese-Americans were wrongfully suspected of spies and paraded as criminals through their arrest, only to have the charges later dropped, but not before they were traumatized and their lives nearly ruined. And it leads us to question, are all Chinese-American scientists suspect because they are Chinese-Americans?    So my question to you is, what went wrong in these cases? And how are you addressing this internally, especially with the FBI, to prevent this from happening in the future?    Attorney General Lynch. Thank you, Congresswoman.    I can state to you unequivocally that the Department of Justice does not focus an investigation on any individual on the basis of their race or their national origin.    Now, with respect to the specific cases that you mentioned, I'm not able to comment on those specifics at this time.</t>
   </si>
   <si>
@@ -643,9 +592,6 @@
     <t>412468</t>
   </si>
   <si>
-    <t>Tom Marino</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Chairman.    Good afternoon, General. Welcome.    Attorney General Lynch. Good afternoon.</t>
   </si>
   <si>
@@ -688,9 +634,6 @@
     <t>412385</t>
   </si>
   <si>
-    <t>Theodore E. Deutch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Deutch. I thank you, Mr. Chairman.    Attorney General Lynch, thanks so much for joining us and especially in light of the horrific attacks in Paris. And I know that the Department of Justice is doing everything that it can to help its French counterparts do their part to bring all of those responsible for these heinous terrorist acts to justice.    I also want to acknowledge the importance of the work that the Department of Justice does in keeping the American people safe. And, as we mourn with Paris, it's moments like these where we pull our own loved ones closer. And we trust that the Administration, including the Justice Department, and law enforcement and our intelligence community and the men and women who serve our country in uniform are doing all that they can to keep our people safe from the threat of terrorism, homegrown and abroad. And we're grateful for that.    We do face daily threats of another kind here at home, however, and I want to talk to you about the daily gun violence that claims nearly 1 American's life every hour of every day and over 32,000 per year.    Every day, dangerous individuals in the United States buy guns without completing any background check at all. And whether it's Dylann Roof, whose approval went through, who wound up murdering nine Americans at worship in Charleston during the summer, or whether it's gang members in Chicago, where more than 400 people have been killed by gun violence this year.    I've served, Madam Attorney General, on this House Judiciary Committee for over 5 1/2 years, and, in that time, gun violence has claimed the lives of over 150,000 Americans. But we haven't had a hearing on this gun violence, not on this Committee, not after Tucson, not after Aurora, not after Newtown, not after Roseburg.    The majority says, as the Chairman said just today again, that there's no reason to have a hearing. All we need to do is simply enforce the existing laws, we're told, and everything will get better.    And before going on to my specific question for you, I'm sure you would acknowledge that it was, I think, helpful to hear the Chairman say earlier that sometimes the National Instant Criminal Background Check doesn't have all the information that it needs.    And I would point out that after the Virginia Tech massacre, where that gunman's mental health record wasn't accessible and the court had declared him a danger to himself, he should never have been allowed to purchase a gun, Congress acted, that Congress acted, and passed legislation that was signed by President Bush that authorized over a billion dollars to States and territories to improve their recordkeeping and reporting to the National Instant Criminal Background Check system. Congress, however, has only allocated about 11 percent of all that money.    And so I would ask the Chairman, consistent with his views that there are some problems with existing law, that we work together to allocate the funds so that all of the information gets to the National Instant Criminal Background Check System so that it can actually work to keep guns out of the hands of dangerous people. That doesn't require a new law. It simply requires making sure we allocate the money, that we spend the money that Congress has authorized over the past several years.    Now, I do want to ask you, Madam Attorney General, about steps that can be taken. As you know, the gun lobbyists made it nearly impossible for the Federal Government to enforce some of our existing government laws. The Federal Government is barred from keeping records of gun sales for more than 24 hours. It's barred from denying a gun sale if a background check can't be completed within 72 hours. It's barred from electronically managing trace data, information about guns recovered at crime scenes and who sold them. Investigations into corrupt gun dealers, therefore, take months instead of minutes. It's barred from requiring gun dealers to keep inventories, logs, and their books in order. And it's barred from seeking assistance from other agencies like the FBI and the DEA.    So I reject the assertion that there's no room for improvement. Clearly, there is. And I'll continue to push for sensible gun safety measures like preventing suspects on our terrorist watchlist from buying guns, making interstate gun trafficking a Federal crime.    But, General Lynch, there may be ways, real ways, to strengthen background checks through Executive action--Executive action that could save lives.    Everytown Against Gun Violence recently issued a report on one potential action. Under current law, only people in the business of selling firearms have to conduct background checks. People who aren't in the business of selling firearms don't have to. But some of these people who technically aren't sellers and don't work in the business sell hundreds of guns a year, without background checks, at gun shows, online, or out of car trunks.    We have to better define the language. Couldn't we set a number for how many gun sales it takes to be in the business of selling guns? And has your office explored that possibility, and are you considering a threshold like that to define who would be technically engaged in the business?    Attorney General Lynch. Well, Congressman, with respect to the serious issue of gun violence, the Department is certainly pursuing all of our enforcement actions that we do have under existing law. And, certainly, it would always be useful to have additional resources for our ATF to allow them to fully investigate everything that we need and that comes under our purview.    With respect to the question that you've raised as to a statutory definition, I believe the statute is going to define that at this time. But, certainly, the Department of Justice and ATF are committed to rigorous enforcement of that statute.</t>
   </si>
   <si>
@@ -712,9 +655,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Gutierrez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gutierrez. Thank you very much, Mr. Chairman.    And welcome, Attorney General.    Attorney General Lynch. Thank you, sir.</t>
   </si>
   <si>
@@ -742,9 +682,6 @@
     <t>412270</t>
   </si>
   <si>
-    <t>Jason Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chaffetz. I thank the Chairman.    And I thank you for being here.    The Inspector General Act, which is currently on the books, says that inspectors general, in carrying out their provisions under the act, are authorized ``to have access to all records, reports, audits, reviews, documents, papers, recommendations, and other material available to the applicable establishment which relate to programs and operations with respect to which the inspector general has responsibilities under the Act.''    Somehow, the Office of Legal Counsel indicated on July 20 that, despite longstanding tradition within the FBI, specifically, the Department of Justice Inspector General is no longer allowed access to grand jury testimony, wiretap information, credit information.    We disagree with that conclusion, but, at this point, we have worked with the inspector general, worked with this Committee, and we're still waiting for full input from the Department of Justice to try to rectify this.    I was hoping that I'd get some commitment from you to work with us and spend time with us on the proposed piece of legislation. I think the current law is sufficient, but you don't, and we're trying to come up with something that would rectify this.    Would you be willing, as somebody from the Department of Justice, to give us guidance and input on this?    Attorney General Lynch. Thank you, Congressman.    I think that you certainly raise the important issue of the important work of all agencies' inspectors general, in particular the Department of Justice----</t>
   </si>
   <si>
@@ -781,9 +718,6 @@
     <t>412404</t>
   </si>
   <si>
-    <t>Karen Bass</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bass. Thank you, Mr. Chair.    And thank you, Attorney General Lynch, for your time today and also for your patience.    It seems as though many people on the Committee would like to have some of your time.    Attorney General Lynch. That's quite all right.</t>
   </si>
   <si>
@@ -808,18 +742,12 @@
     <t>412531</t>
   </si>
   <si>
-    <t>Doug Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins [presiding]. The Committee will come to order. Welcome back. Thank you for the break and allowing us to go vote. And at this time we will continue questions, and the Chair recognizes Ms. Walters from California.</t>
   </si>
   <si>
     <t>412618</t>
   </si>
   <si>
-    <t>Mimi Walters</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Walters. Thank you, Mr. Chairman.    Attorney General Lynch, last year I followed the various scandals that plagued the Department of Veterans Affairs. And like many Americans, I was appalled at the manipulation of patient wait times at numerous VA facilities. Our veterans risked life and limb to serve this Nation and the VA failed them.    FBI Director James Comey confirmed on June 11, 2014, that the FBI was investigating criminal allegations, and this was within the Veterans Affairs related to the manipulation of patient wait times. Can you provide to us the status of an update regarding the investigation?    Attorney General Lynch. Thank you for the question. I certainly share your concern in regard for our Nation's veterans, having several of them in my own family.    With respect to that matter, I'm not able to provide you an update at this time. I would like to have my staff reach out to you after we see what information we'd be able to provide to your office.</t>
   </si>
   <si>
@@ -850,9 +778,6 @@
     <t>412432</t>
   </si>
   <si>
-    <t>Cedric L. Richmond</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Richmond. Thank you for coming and thank you for enduring several hours of testimony, so I will try to be very brief.    What I wanted to do in the beginning, Mr. Chairman, is ask unanimous consent to enter into the record a report from The Clemency Report which talks about 25 women deserving of clemency. Of interest to me would be of course Sharanda Jones and Danielle Metz. And I'd like to give it to you so that--a copy to you so that we can talk about it in the future. But there are cases where----</t>
   </si>
   <si>
@@ -910,9 +835,6 @@
     <t>412505</t>
   </si>
   <si>
-    <t>Suzan K. DelBene</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you, Mr. Chair.    Thank you, Attorney General, for being here with us today and for all of your time.    As you are no doubt aware, in 2012 voters in my home State of Washington passed Initiative 502, which legalized the sale, consumption, and taxation of marijuana products. Including Washington, 23 States and the District of Columbia have legalized some form of marijuana, and in 2016 several more States are expected to consider marijuana legislation on ballot initiatives. Washington has already collected over $80 million in tax revenue from sales. And since the passage of Initiative 502, court filings in Washington for low-level marijuana offenses have dropped by 98 percent, saving the State millions of dollars in enforcement and in judicial expenses.    As you also may know, there are a wide variety of marijuana reform measures that have been introduced in Congress. And there is still the ongoing concerns about the conflict between State and Federal law in many areas, particularly in banking, for example, and they range from legalization to rescheduling.    And a bill that I recently introduced, the SMART Enforcement Act, my bill would give you, the Attorney General, the authority to waive the Controlled Substances Act for States that are effectively regulating marijuana themselves, such as Washington State. So it authorizes a waiver from the Controlled Substances Act for States that meet requirements preventing the distribution of marijuana to minors, violence or use of firearms in cultivation and distribution of marijuana, and drug driving.    And I want to thank your team for answering many questions that my office had as we were in the drafting process. I wanted to hear from you your thoughts on this type of legislation and this approach to reform and about how the enforcement priorities that were outlined in the Cole memo have been working.    Attorney General Lynch. Thank you, Congresswoman, for the question. And we're happy to provide information and assistance as needed by your staff as you review this important issue.    Certainly the factors that have been outlined in the Cole memo and that have been stressed in further discussions with the U.S. attorney community remain consistent. Our concerns are the areas that you mentioned. Where a State chooses to have a legalized marijuana structure, we will review that structure and look at that, but our concern is, frankly, marijuana getting into the hands of minors and also being trafficked out of State where a State may have not made the same choice.    We also have grave concerns about the areas of the edible products that are so appealing to children and expose them to this product, which I don't believe is the goal of the regime that you're talking about, but is a concern of ours. We're also concerned as well about the violence that is still associated with the higher levels of the marijuana trafficking industry.    And so at the Federal level we are focusing our resources on that type of enforcement action and we continue to do so. In my former office, we prosecuted cases involving importation of large amounts of marijuana, utilizing an Indian reservation on the Canadian border, and also utilizing organized crime connections.    So we certainly still have a robust practice. Again, we focus limited Federal resources on those types of cases.</t>
   </si>
   <si>
@@ -934,9 +856,6 @@
     <t>412526</t>
   </si>
   <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Mr. Chairman.    Welcome, Madam Attorney General.    When you were the U.S. attorney and you received inquiries about an ongoing investigation, how would you respond to those inquiries typically?    Attorney General Lynch. Well, Mr. Congressman, thank you for the question. It is Department policy and certainly my own view as a career prosecutor, typically our response would be that we're not able to comment on an ongoing matter.</t>
   </si>
   <si>
@@ -973,9 +892,6 @@
     <t>412561</t>
   </si>
   <si>
-    <t>Hakeem S. Jeffries</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jeffries. I thank the Chairman.    And I thank the Attorney General for your presence and your testimony here today and your leadership.    One of my colleagues from Illinois mentioned earlier that in the city of Chicago approximately 60 percent of the instances of gun violence can be traced to weapons that were initially purchased in either the neighboring States of Wisconsin or Indiana, as well as, I believe, from Mississippi. It's also the case that many of the weapons that are used to commit crime in south-central Los Angeles can be traced initially to the neighboring State of Arizona.    We've got a similar problem in New York in terms of the weapons that are used often to commit crime in the city, and in fact this has been illustrated. Recently we've experienced the deaths of four officers in the line of duty over the last 10 months, Detective Ramos, Detective Liu, Brian Moore, and Randolph Holder. It was a very diverse group, sort of emblematic of the increased diversity of the New York City Police Department, one was African America, one was White, one was Asian, one was Latino. They all paid the ultimate price.    One of the things that they had in common was that the weapons that were used to kill each of these offices came from outside of the State. Detective Ramos, Detective Liu were killed by a weapon that came from Georgia, Officer Moore a weapon that came from Georgia, Officer Holder a weapon that came from South Carolina.    And so it seems that even as certain States see fit to tighten their gun violence prevention laws, because there is no national legislative effort, many States have been subjected to closing the front door, but guns being able to come into those States through the back door.    And so my question is, do you think that the gun trafficking laws that currently exist on the books are adequate for the ATF, the FBI, the Department of Justice to do its job in combatting gun violence?    Attorney General Lynch. Well, certainly, Congressman, the protection of the American people, particularly when it comes to gun violence, is one of our highest priorities, and we are committed to making every effort to carry out that goal and that responsibility. We look to vigorously enforce all the laws on the books. There are a number of cases I recall when I was still in Brooklyn that my colleague in the Brooklyn DA's office was able to essentially close down a firearm trafficking ring that was bringing guns, as you indicated, from Georgia to New York.    So it is something that all levels of law enforcement take very seriously. We work closely with our State and local colleagues on this issue and we will continue to do so.    Certainly should Congress consider additional legislation, we'd be happy to provide input and comment on that. That is certainly something that I think there is a debate about and I think all voices should be part of that debate.</t>
   </si>
   <si>
@@ -1000,9 +916,6 @@
     <t>412635</t>
   </si>
   <si>
-    <t>Mike Bishop</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bishop. Well, thank you, Mr. Chair.    And thank you, Madam Attorney General, for being here today and for your patience in sitting through this long testimony.    The primary function of any prosecutor is to enforce the law and the Constitution and to ensure justice. And as I listened to some of the questions, and this can be applied in several different areas that we've been discussing today, the Chairman took you down the path of talking to you about sanctuary cities. And to me the idea of sanctuary cities is really antithetical to what prosecutors believe and that is justice, because it is the selective application of laws.    And I'm wondering what your opinion is of sanctuary cities given all that's been happening in this country. We have cities that have decided to enforce their own brand of law, to ignore law. We have constituents that we represent that don't understand that and Members that do not understand how we can have a law enforcement community that does not enforce the law. It just is inexplicable.    I think it's important that we have some clarity to this answer, but Federal law prohibits, specifically section 642 of the Illegal Immigration Reform and Immigrant Responsibility Act of 1996, any State or local government from prohibiting their officials from communicating with DHS information regarding the immigration status of any purpose. Yet, it happens.    And I'm just wondering, your predecessor didn't address this issue, I'm wondering if you can address it and if you can give the American people some clarity as to why sanctuary cities are still allowed to exist in this country.    Attorney General Lynch. Well, Congressman, I have to tell you, it is not an issue on which I'm able to give you clarity about the history of sanctuary cities. At this point I'm happy to look into the issue and provide you with whatever information we can.    I know that it is an issue of intense debate, and of course the Department of Justice is able to provide not only the information, but to help in that debate. I'm not able to give you the history of how they came about or explain that to you. I do understand the challenges that you note, however.</t>
   </si>
   <si>
@@ -1018,9 +931,6 @@
     <t>412470</t>
   </si>
   <si>
-    <t>David N. Cicilline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman.    And thank you, Madam Attorney General, for being here, particularly at a moment when I know you and the entire Justice Department is offering full assistance to your counterparts in France to respond to this horrific terrorist attack.    I want to focus my questions really on gun violence in our country. And specifically, as you know, under Federal law, a gun seller may transfer a firearm to a purchaser after 72 business hours even if the criminal background check has not been completed. And because of that--it's called default proceed policy within the Department--and because of that, gun dealers went forward with almost 16,000 sales to people who turned out to be prohibited purchasers between 2010 and 2014.    So my first question is, do you think that the default proceed policy should be changed to a policy that says firearm sales may only occur if the background check has been completed and the transfer approved?    Attorney General Lynch. Certainly you raise an important issue about gun safety and our background system. We have been looking specifically at this issue given the unfortunate tragic circumstances that allowed Dylann Roof to purchase a firearm. And what I will say, though, is that while it certainly does make it challenging and make it difficult to ensure that we keep firearms out of those who are prohibited, that is the current state of the law.</t>
   </si>
   <si>
@@ -1075,9 +985,6 @@
     <t>412419</t>
   </si>
   <si>
-    <t>Raúl R. Labrador</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Labrador. Thank you, Mr. Chairman.    Thank you, Attorney General Lynch, for being here. I know it's been a long day.    As you, I'm deeply troubled by recent events taking place on the global stage. I know that you have shared your concern about what happened in Paris, attacks in Beirut, and the current crisis in Syria. These events, both singular and ongoing, have reinforced and further impressed on us the very harsh realities of our world, and now we are confronted with a duty to respond here in Congress. I hope that the Administration will take the necessary steps to ensure our Nation's security to the greatest extent possible in these uncertain times.    As you know, Director Comey was here just a couple of weeks ago, and we asked him some questions, and he testified before this Committee that the FBI cannot offer absolute assurance that there is no risk associated with the current Syrian refugee crisis. In fact, when I asked him specifically about the security gaps in Syria, he said, ``The challenge we face with Syria is that we don't have that rich a set of data. So even though we've gotten better at querying what we have, we certainly will have less overall.''    So, in other words, he's saying we have the ability to query the information that we have, but we don't have a good set of data, we don't have a good set of intelligence. Do you agree with that assessment?    Attorney General Lynch. Certainly with respect to the information coming into our databases from Syria, as the Director has noted, it does present challenges to law enforcement. However, that does not mean we will stop trying to obtain data and utilize that screening system and I certainly want to convey our commitment to doing that. But certainly, as the Director has indicated, there are challenges to a system based upon the amount and type of data that one can obtain.</t>
   </si>
   <si>
@@ -1105,9 +1012,6 @@
     <t>412636</t>
   </si>
   <si>
-    <t>David A. Trott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Trott. Thank you, Mr. Chairman.    Thank you, Madam General, for testifying today.    And I want to talk a little bit about the mortgage settlements. And, you know, in 2013 activist groups met with then Deputy Attorney General Tony West and urged him to, in my opinion, create a slush fund to fund their activities in connection with the JPMorgan Chase settlement. Then in 2014 the same groups came back to the Deputy Attorney General and in connection with the Citi and Wells Fargo settlements really pushed and accomplished mandatory donations to activist groups, specifically IAF, with enhanced credits for donations to those groups. And I wondered if you could comment on whether you think that those discussions occurred, number one, and if they did, why?    Attorney General Lynch. Congressman, with respect to those settlements involving residential mortgage-backed securities frauds, they are an important part of the Department's work to not only protect the American people, but provide relief from the financial crisis and the housing crisis that has occurred from 2008 on.    In connection with your specific question, I'm not aware of the meetings that you were talking about. I was not involved in them. But what I can tell you as a former U.S. attorney who was involved in the settlements of two of those matters, negotiations were between the banks and the governments, and that is certainly how those matters were handled and how they were resolved.    With respect to the consumer relief portions of those settlements, the money there comes from the banks, and it is specifically designed in the wake of the widespread and detailed admissions of wrongdoing on the part of the banks that led to thousands, if not hundreds of thousands of homeowners losing not only their homes, but the value of their homes and their savings.    We also instituted consumer relief to provide direct relief to people that went above and beyond the statutory penalties of the FIRREA statute under which these cases were brought. Where banks are able to provide, for example, one of the main forms of relief is principal reduction.</t>
   </si>
   <si>
@@ -1141,9 +1045,6 @@
     <t>400220</t>
   </si>
   <si>
-    <t>Steve King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman.    And I want to thank you, Attorney General, for a long day today, and I hope you got a break for lunch. I did.    A number of things come to mind. I'd like to pick up on the sanctuary city side of this. And that is this statute that prohibits the local jurisdictions, the law enforcement jurisdictions from having a policy that prohibits their law enforcement officers from engaging with, supporting with, or helping immigration enforcement officials from the Federal Government. And I'm of the understanding that some of these communities prohibit their law enforcement officers from gathering information and in that way they circumvent the text of 642(a), as the gentleman referenced.    And so I think it's important that you know that section and enforce that section. I've not yet seen an attorney general that does enforce that section of the law. And if you read that and it reads to you as literally as I have described it to you, would you be prepared then to withhold law enforcement grants from those local jurisdictions?    Attorney General Lynch. Well, thank you for the question, Congressman, and for the specific factual predicate to it. Again, it's not a statute that I'm familiar with now to give you a specific response to, but I am happy to look into that and provide you with information on that.</t>
   </si>
   <si>
@@ -1190,9 +1091,6 @@
   </si>
   <si>
     <t>412653</t>
-  </si>
-  <si>
-    <t>John Ratcliffe</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman.    Madam Attorney General, in my district there is quite a large number of law-abiding gun owners who also happen to be hunters. I can't tell you how many times I've heard complaints from those hunters about the availability of ammunition, especially at the start of deer season. As you may know, hunters are being forced to use alternative nonlead ammunition because manufacturers can't make brass or steel core ammunition for.30-06 a .270 deer hunting rifle unless they get a waiver saying it's primarily intended for sporting purposes and that waiver has to come from the Attorney General.    Now, in the last 4 years there have been at least 32 petitions that have been submitted by manufacturers seeking that designation. Not a single one of those petitions has been granted. But what really begs an explanation, I think, is that in the last 4 years not a single response has been sent to any manufacturer with regard to those petitions.    So my question to you is a two-part question. Why haven't those been responded to, and when can a response be expected?    Attorney General Lynch. Thank you for the question, Congressman.    I'm not aware of the requests that you have noted. But I thank you for raising them and I would like the opportunity to look into that matter and provide you some information.</t>
@@ -1624,11 +1522,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1648,13 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1676,11 +1570,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1702,11 +1594,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1728,11 +1618,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1754,11 +1642,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1780,11 +1666,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1806,11 +1690,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1832,11 +1714,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1858,11 +1738,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1884,11 +1762,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1910,11 +1786,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1936,11 +1810,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1962,11 +1834,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1988,11 +1858,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2014,11 +1882,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2040,11 +1906,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2066,11 +1930,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2090,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2116,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2142,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2168,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2194,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2222,11 +2074,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2246,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2272,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
         <v>39</v>
-      </c>
-      <c r="G27" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2298,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
         <v>40</v>
-      </c>
-      <c r="H28" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2324,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2350,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" t="s">
-        <v>40</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2378,11 +2218,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2402,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" t="s">
-        <v>48</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2428,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" t="s">
-        <v>48</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2454,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
         <v>47</v>
-      </c>
-      <c r="G34" t="s">
-        <v>48</v>
-      </c>
-      <c r="H34" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2480,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
         <v>48</v>
-      </c>
-      <c r="H35" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2506,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s">
-        <v>48</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2532,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" t="s">
-        <v>48</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2560,11 +2386,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2584,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2610,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2636,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2662,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
         <v>56</v>
-      </c>
-      <c r="G42" t="s">
-        <v>57</v>
-      </c>
-      <c r="H42" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2688,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
         <v>57</v>
-      </c>
-      <c r="H43" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2714,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2740,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2766,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2792,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
-      </c>
-      <c r="G47" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2818,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2844,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2870,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2896,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
-      </c>
-      <c r="G51" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2922,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
-      </c>
-      <c r="G52" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2948,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
-      </c>
-      <c r="G53" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2974,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
-      </c>
-      <c r="G54" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3002,11 +2794,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3026,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
-      </c>
-      <c r="G56" t="s">
-        <v>76</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3052,13 +2840,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G57" t="s">
-        <v>76</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3078,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>75</v>
-      </c>
-      <c r="G58" t="s">
-        <v>76</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3104,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>75</v>
-      </c>
-      <c r="G59" t="s">
-        <v>76</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3130,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
         <v>75</v>
-      </c>
-      <c r="G60" t="s">
-        <v>76</v>
-      </c>
-      <c r="H60" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3156,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
-      </c>
-      <c r="G61" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
         <v>76</v>
-      </c>
-      <c r="H61" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3182,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>75</v>
-      </c>
-      <c r="G62" t="s">
-        <v>76</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3210,11 +2986,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3234,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
-      </c>
-      <c r="G64" t="s">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3260,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>85</v>
-      </c>
-      <c r="G65" t="s">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3286,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
-      </c>
-      <c r="G66" t="s">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3312,13 +3080,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>85</v>
-      </c>
-      <c r="G67" t="s">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3338,13 +3104,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
-      </c>
-      <c r="G68" t="s">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3364,13 +3128,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
+        <v>79</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
         <v>85</v>
-      </c>
-      <c r="G69" t="s">
-        <v>86</v>
-      </c>
-      <c r="H69" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3390,13 +3152,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
-      </c>
-      <c r="G70" t="s">
+        <v>79</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
         <v>86</v>
-      </c>
-      <c r="H70" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3416,13 +3176,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>85</v>
-      </c>
-      <c r="G71" t="s">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3442,13 +3200,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>85</v>
-      </c>
-      <c r="G72" t="s">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3468,13 +3224,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>85</v>
-      </c>
-      <c r="G73" t="s">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3494,13 +3248,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" t="s">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3520,13 +3272,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>85</v>
-      </c>
-      <c r="G75" t="s">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3546,13 +3296,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>85</v>
-      </c>
-      <c r="G76" t="s">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3572,13 +3320,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>85</v>
-      </c>
-      <c r="G77" t="s">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3598,13 +3344,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>85</v>
-      </c>
-      <c r="G78" t="s">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3624,13 +3368,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>85</v>
-      </c>
-      <c r="G79" t="s">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3650,13 +3392,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>85</v>
-      </c>
-      <c r="G80" t="s">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3678,11 +3418,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3702,13 +3440,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>105</v>
-      </c>
-      <c r="G82" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3728,13 +3464,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>105</v>
-      </c>
-      <c r="G83" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3754,13 +3488,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>105</v>
-      </c>
-      <c r="G84" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3780,13 +3512,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>105</v>
-      </c>
-      <c r="G85" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3806,13 +3536,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
-      </c>
-      <c r="G86" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3834,11 +3562,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3858,13 +3584,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
+        <v>98</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
         <v>105</v>
-      </c>
-      <c r="G88" t="s">
-        <v>106</v>
-      </c>
-      <c r="H88" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3884,13 +3608,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>105</v>
-      </c>
-      <c r="G89" t="s">
+        <v>98</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
         <v>106</v>
-      </c>
-      <c r="H89" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3910,13 +3632,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
-      </c>
-      <c r="G90" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3938,11 +3658,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3962,13 +3680,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>117</v>
-      </c>
-      <c r="G92" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3988,13 +3704,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>117</v>
-      </c>
-      <c r="G93" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4014,13 +3728,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>117</v>
-      </c>
-      <c r="G94" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4040,13 +3752,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>117</v>
-      </c>
-      <c r="G95" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4066,13 +3776,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>117</v>
-      </c>
-      <c r="G96" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4092,13 +3800,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>117</v>
-      </c>
-      <c r="G97" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4118,13 +3824,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>117</v>
-      </c>
-      <c r="G98" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4144,13 +3848,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
+        <v>109</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
         <v>117</v>
-      </c>
-      <c r="G99" t="s">
-        <v>118</v>
-      </c>
-      <c r="H99" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4170,13 +3872,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>117</v>
-      </c>
-      <c r="G100" t="s">
+        <v>109</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
         <v>118</v>
-      </c>
-      <c r="H100" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4196,13 +3896,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>117</v>
-      </c>
-      <c r="G101" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4222,13 +3920,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>117</v>
-      </c>
-      <c r="G102" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4248,13 +3944,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>117</v>
-      </c>
-      <c r="G103" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4274,13 +3968,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>117</v>
-      </c>
-      <c r="G104" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4300,13 +3992,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>117</v>
-      </c>
-      <c r="G105" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4326,13 +4016,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>117</v>
-      </c>
-      <c r="G106" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4352,13 +4040,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>117</v>
-      </c>
-      <c r="G107" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4378,13 +4064,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>117</v>
-      </c>
-      <c r="G108" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4404,13 +4088,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>117</v>
-      </c>
-      <c r="G109" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4430,13 +4112,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>117</v>
-      </c>
-      <c r="G110" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4458,11 +4138,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4482,13 +4160,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>139</v>
-      </c>
-      <c r="G112" t="s">
-        <v>140</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4508,13 +4184,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>139</v>
-      </c>
-      <c r="G113" t="s">
-        <v>140</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4534,13 +4208,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>139</v>
-      </c>
-      <c r="G114" t="s">
-        <v>140</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4560,13 +4232,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>139</v>
-      </c>
-      <c r="G115" t="s">
-        <v>140</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4586,13 +4256,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>139</v>
-      </c>
-      <c r="G116" t="s">
-        <v>140</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4612,13 +4280,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>139</v>
-      </c>
-      <c r="G117" t="s">
-        <v>140</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4638,13 +4304,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>139</v>
-      </c>
-      <c r="G118" t="s">
-        <v>140</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4664,13 +4328,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>139</v>
-      </c>
-      <c r="G119" t="s">
-        <v>140</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4690,13 +4352,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
+        <v>130</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
         <v>139</v>
-      </c>
-      <c r="G120" t="s">
-        <v>140</v>
-      </c>
-      <c r="H120" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4716,13 +4376,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>139</v>
-      </c>
-      <c r="G121" t="s">
+        <v>130</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
         <v>140</v>
-      </c>
-      <c r="H121" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4742,13 +4400,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>151</v>
-      </c>
-      <c r="G122" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4768,13 +4424,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>154</v>
-      </c>
-      <c r="G123" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4794,13 +4448,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>154</v>
-      </c>
-      <c r="G124" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4820,13 +4472,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>154</v>
-      </c>
-      <c r="G125" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4846,13 +4496,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>154</v>
-      </c>
-      <c r="G126" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4872,13 +4520,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>154</v>
-      </c>
-      <c r="G127" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4898,13 +4544,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>154</v>
-      </c>
-      <c r="G128" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4924,13 +4568,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>154</v>
-      </c>
-      <c r="G129" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4950,13 +4592,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>154</v>
-      </c>
-      <c r="G130" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4976,13 +4616,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>154</v>
-      </c>
-      <c r="G131" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5002,13 +4640,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>154</v>
-      </c>
-      <c r="G132" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5028,13 +4664,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
+        <v>143</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
         <v>154</v>
-      </c>
-      <c r="G133" t="s">
-        <v>155</v>
-      </c>
-      <c r="H133" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5054,13 +4688,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>154</v>
-      </c>
-      <c r="G134" t="s">
+        <v>143</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
         <v>155</v>
-      </c>
-      <c r="H134" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5080,13 +4712,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>151</v>
-      </c>
-      <c r="G135" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5106,13 +4736,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>169</v>
-      </c>
-      <c r="G136" t="s">
-        <v>170</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5132,13 +4760,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>169</v>
-      </c>
-      <c r="G137" t="s">
-        <v>170</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5158,13 +4784,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>169</v>
-      </c>
-      <c r="G138" t="s">
-        <v>170</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5184,13 +4808,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>169</v>
-      </c>
-      <c r="G139" t="s">
-        <v>170</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5210,13 +4832,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>169</v>
-      </c>
-      <c r="G140" t="s">
-        <v>170</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5236,13 +4856,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>169</v>
-      </c>
-      <c r="G141" t="s">
-        <v>170</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5262,13 +4880,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>177</v>
-      </c>
-      <c r="G142" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5288,13 +4904,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>177</v>
-      </c>
-      <c r="G143" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5314,13 +4928,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>177</v>
-      </c>
-      <c r="G144" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5340,13 +4952,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>177</v>
-      </c>
-      <c r="G145" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5366,13 +4976,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>151</v>
-      </c>
-      <c r="G146" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5392,13 +5000,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>184</v>
-      </c>
-      <c r="G147" t="s">
-        <v>185</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5418,13 +5024,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>184</v>
-      </c>
-      <c r="G148" t="s">
-        <v>185</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5444,13 +5048,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>151</v>
-      </c>
-      <c r="G149" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5470,13 +5072,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>189</v>
-      </c>
-      <c r="G150" t="s">
-        <v>190</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5496,13 +5096,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>189</v>
-      </c>
-      <c r="G151" t="s">
-        <v>190</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5522,13 +5120,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>189</v>
-      </c>
-      <c r="G152" t="s">
-        <v>190</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5548,13 +5144,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>189</v>
-      </c>
-      <c r="G153" t="s">
-        <v>190</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5574,13 +5168,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>189</v>
-      </c>
-      <c r="G154" t="s">
-        <v>190</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5600,13 +5192,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>189</v>
-      </c>
-      <c r="G155" t="s">
-        <v>190</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5626,13 +5216,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>189</v>
-      </c>
-      <c r="G156" t="s">
-        <v>190</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5652,13 +5240,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>189</v>
-      </c>
-      <c r="G157" t="s">
-        <v>190</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5678,13 +5264,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>189</v>
-      </c>
-      <c r="G158" t="s">
-        <v>190</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5704,13 +5288,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>189</v>
-      </c>
-      <c r="G159" t="s">
-        <v>190</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5730,13 +5312,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>189</v>
-      </c>
-      <c r="G160" t="s">
-        <v>190</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5756,13 +5336,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>151</v>
-      </c>
-      <c r="G161" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5782,13 +5360,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>203</v>
-      </c>
-      <c r="G162" t="s">
-        <v>204</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5808,13 +5384,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>203</v>
-      </c>
-      <c r="G163" t="s">
-        <v>204</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5834,13 +5408,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>151</v>
-      </c>
-      <c r="G164" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5860,13 +5432,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>208</v>
-      </c>
-      <c r="G165" t="s">
-        <v>209</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5886,13 +5456,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>208</v>
-      </c>
-      <c r="G166" t="s">
-        <v>209</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5912,13 +5480,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>208</v>
-      </c>
-      <c r="G167" t="s">
-        <v>209</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5938,13 +5504,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>208</v>
-      </c>
-      <c r="G168" t="s">
-        <v>209</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5964,13 +5528,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>208</v>
-      </c>
-      <c r="G169" t="s">
-        <v>209</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5990,13 +5552,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>208</v>
-      </c>
-      <c r="G170" t="s">
-        <v>209</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6016,13 +5576,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>208</v>
-      </c>
-      <c r="G171" t="s">
-        <v>209</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6042,13 +5600,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>208</v>
-      </c>
-      <c r="G172" t="s">
-        <v>209</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6068,13 +5624,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>208</v>
-      </c>
-      <c r="G173" t="s">
-        <v>209</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6094,13 +5648,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>208</v>
-      </c>
-      <c r="G174" t="s">
-        <v>209</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6120,13 +5672,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>208</v>
-      </c>
-      <c r="G175" t="s">
-        <v>209</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6146,13 +5696,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>208</v>
-      </c>
-      <c r="G176" t="s">
-        <v>209</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6172,13 +5720,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>151</v>
-      </c>
-      <c r="G177" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6198,13 +5744,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>223</v>
-      </c>
-      <c r="G178" t="s">
-        <v>224</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6224,13 +5768,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>223</v>
-      </c>
-      <c r="G179" t="s">
-        <v>224</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6250,13 +5792,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>151</v>
-      </c>
-      <c r="G180" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6276,13 +5816,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>151</v>
-      </c>
-      <c r="G181" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6302,13 +5840,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>151</v>
-      </c>
-      <c r="G182" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6328,13 +5864,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>151</v>
-      </c>
-      <c r="G183" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6354,13 +5888,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>231</v>
-      </c>
-      <c r="G184" t="s">
-        <v>232</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6380,13 +5912,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>231</v>
-      </c>
-      <c r="G185" t="s">
-        <v>232</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6406,13 +5936,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>231</v>
-      </c>
-      <c r="G186" t="s">
-        <v>232</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6432,13 +5960,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>231</v>
-      </c>
-      <c r="G187" t="s">
-        <v>232</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6458,13 +5984,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>231</v>
-      </c>
-      <c r="G188" t="s">
-        <v>232</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6484,13 +6008,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>231</v>
-      </c>
-      <c r="G189" t="s">
-        <v>232</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6510,13 +6032,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>231</v>
-      </c>
-      <c r="G190" t="s">
-        <v>232</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6536,13 +6056,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>151</v>
-      </c>
-      <c r="G191" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6562,13 +6080,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>241</v>
-      </c>
-      <c r="G192" t="s">
-        <v>242</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6588,13 +6104,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>241</v>
-      </c>
-      <c r="G193" t="s">
-        <v>242</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6614,13 +6128,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>241</v>
-      </c>
-      <c r="G194" t="s">
-        <v>242</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6640,13 +6152,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>241</v>
-      </c>
-      <c r="G195" t="s">
-        <v>242</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6666,13 +6176,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>241</v>
-      </c>
-      <c r="G196" t="s">
-        <v>242</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6692,13 +6200,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>241</v>
-      </c>
-      <c r="G197" t="s">
-        <v>242</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6718,13 +6224,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>241</v>
-      </c>
-      <c r="G198" t="s">
-        <v>242</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6744,13 +6248,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>241</v>
-      </c>
-      <c r="G199" t="s">
-        <v>242</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6770,13 +6272,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>241</v>
-      </c>
-      <c r="G200" t="s">
-        <v>242</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6796,13 +6296,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>151</v>
-      </c>
-      <c r="G201" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6822,13 +6320,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>151</v>
-      </c>
-      <c r="G202" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6848,13 +6344,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>254</v>
-      </c>
-      <c r="G203" t="s">
-        <v>255</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6874,13 +6368,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>254</v>
-      </c>
-      <c r="G204" t="s">
-        <v>255</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6900,13 +6392,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>254</v>
-      </c>
-      <c r="G205" t="s">
-        <v>255</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6926,13 +6416,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>254</v>
-      </c>
-      <c r="G206" t="s">
-        <v>255</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6952,13 +6440,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>254</v>
-      </c>
-      <c r="G207" t="s">
-        <v>255</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6978,13 +6464,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>151</v>
-      </c>
-      <c r="G208" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7004,13 +6488,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>151</v>
-      </c>
-      <c r="G209" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7030,13 +6512,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>263</v>
-      </c>
-      <c r="G210" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7056,13 +6536,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>266</v>
-      </c>
-      <c r="G211" t="s">
-        <v>267</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7082,13 +6560,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>266</v>
-      </c>
-      <c r="G212" t="s">
-        <v>267</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7108,13 +6584,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>266</v>
-      </c>
-      <c r="G213" t="s">
-        <v>267</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7134,13 +6608,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>266</v>
-      </c>
-      <c r="G214" t="s">
-        <v>267</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7160,13 +6632,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>266</v>
-      </c>
-      <c r="G215" t="s">
-        <v>267</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7186,13 +6656,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>266</v>
-      </c>
-      <c r="G216" t="s">
-        <v>267</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7212,13 +6680,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>263</v>
-      </c>
-      <c r="G217" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7238,13 +6704,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>266</v>
-      </c>
-      <c r="G218" t="s">
-        <v>267</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7264,13 +6728,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>263</v>
-      </c>
-      <c r="G219" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7290,13 +6752,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>277</v>
-      </c>
-      <c r="G220" t="s">
-        <v>278</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7316,13 +6776,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>263</v>
-      </c>
-      <c r="G221" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7342,13 +6800,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>277</v>
-      </c>
-      <c r="G222" t="s">
-        <v>278</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7368,13 +6824,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>277</v>
-      </c>
-      <c r="G223" t="s">
-        <v>278</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7394,13 +6848,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>277</v>
-      </c>
-      <c r="G224" t="s">
-        <v>278</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7420,13 +6872,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>263</v>
-      </c>
-      <c r="G225" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7446,13 +6896,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>277</v>
-      </c>
-      <c r="G226" t="s">
-        <v>278</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7472,13 +6920,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>263</v>
-      </c>
-      <c r="G227" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7498,13 +6944,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>263</v>
-      </c>
-      <c r="G228" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7524,13 +6968,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
+        <v>241</v>
+      </c>
+      <c r="G229" t="s"/>
+      <c r="H229" t="s">
         <v>263</v>
-      </c>
-      <c r="G229" t="s">
-        <v>264</v>
-      </c>
-      <c r="H229" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7550,13 +6992,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>263</v>
-      </c>
-      <c r="G230" t="s">
+        <v>241</v>
+      </c>
+      <c r="G230" t="s"/>
+      <c r="H230" t="s">
         <v>264</v>
-      </c>
-      <c r="H230" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7576,13 +7016,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>263</v>
-      </c>
-      <c r="G231" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7602,13 +7040,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>263</v>
-      </c>
-      <c r="G232" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7628,13 +7064,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>263</v>
-      </c>
-      <c r="G233" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7654,13 +7088,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>263</v>
-      </c>
-      <c r="G234" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7680,13 +7112,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>263</v>
-      </c>
-      <c r="G235" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7706,13 +7136,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>263</v>
-      </c>
-      <c r="G236" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7732,13 +7160,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>263</v>
-      </c>
-      <c r="G237" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7758,13 +7184,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>297</v>
-      </c>
-      <c r="G238" t="s">
-        <v>298</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7784,13 +7208,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>297</v>
-      </c>
-      <c r="G239" t="s">
-        <v>298</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7810,13 +7232,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>297</v>
-      </c>
-      <c r="G240" t="s">
-        <v>298</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7836,13 +7256,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>263</v>
-      </c>
-      <c r="G241" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7862,13 +7280,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>297</v>
-      </c>
-      <c r="G242" t="s">
-        <v>298</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7888,13 +7304,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>263</v>
-      </c>
-      <c r="G243" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7914,13 +7328,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>305</v>
-      </c>
-      <c r="G244" t="s">
-        <v>306</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7940,13 +7352,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>305</v>
-      </c>
-      <c r="G245" t="s">
-        <v>306</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7966,13 +7376,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>305</v>
-      </c>
-      <c r="G246" t="s">
-        <v>306</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7992,13 +7400,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>305</v>
-      </c>
-      <c r="G247" t="s">
-        <v>306</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8018,13 +7424,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>305</v>
-      </c>
-      <c r="G248" t="s">
-        <v>306</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8044,13 +7448,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>305</v>
-      </c>
-      <c r="G249" t="s">
-        <v>306</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8070,13 +7472,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>305</v>
-      </c>
-      <c r="G250" t="s">
-        <v>306</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8096,13 +7496,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>305</v>
-      </c>
-      <c r="G251" t="s">
-        <v>306</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8122,13 +7520,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>305</v>
-      </c>
-      <c r="G252" t="s">
-        <v>306</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8148,13 +7544,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>305</v>
-      </c>
-      <c r="G253" t="s">
-        <v>306</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8174,13 +7568,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>263</v>
-      </c>
-      <c r="G254" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8200,13 +7592,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>318</v>
-      </c>
-      <c r="G255" t="s">
-        <v>319</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8226,13 +7616,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>318</v>
-      </c>
-      <c r="G256" t="s">
-        <v>319</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8252,13 +7640,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>318</v>
-      </c>
-      <c r="G257" t="s">
-        <v>319</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8278,13 +7664,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>318</v>
-      </c>
-      <c r="G258" t="s">
-        <v>319</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8304,13 +7688,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>318</v>
-      </c>
-      <c r="G259" t="s">
-        <v>319</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8330,13 +7712,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>263</v>
-      </c>
-      <c r="G260" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8356,13 +7736,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>263</v>
-      </c>
-      <c r="G261" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8382,13 +7760,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>327</v>
-      </c>
-      <c r="G262" t="s">
-        <v>328</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8408,13 +7784,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>327</v>
-      </c>
-      <c r="G263" t="s">
-        <v>328</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8434,13 +7808,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>327</v>
-      </c>
-      <c r="G264" t="s">
-        <v>328</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8460,13 +7832,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>263</v>
-      </c>
-      <c r="G265" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8486,13 +7856,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>333</v>
-      </c>
-      <c r="G266" t="s">
-        <v>334</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8512,13 +7880,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>333</v>
-      </c>
-      <c r="G267" t="s">
-        <v>334</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8538,13 +7904,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>333</v>
-      </c>
-      <c r="G268" t="s">
-        <v>334</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8564,13 +7928,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>333</v>
-      </c>
-      <c r="G269" t="s">
-        <v>334</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8590,13 +7952,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>333</v>
-      </c>
-      <c r="G270" t="s">
-        <v>334</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8616,13 +7976,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>333</v>
-      </c>
-      <c r="G271" t="s">
-        <v>334</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8642,13 +8000,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>333</v>
-      </c>
-      <c r="G272" t="s">
-        <v>334</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8668,13 +8024,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>333</v>
-      </c>
-      <c r="G273" t="s">
-        <v>334</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8694,13 +8048,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>333</v>
-      </c>
-      <c r="G274" t="s">
-        <v>334</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8720,13 +8072,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>263</v>
-      </c>
-      <c r="G275" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8746,13 +8096,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>333</v>
-      </c>
-      <c r="G276" t="s">
-        <v>334</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8772,13 +8120,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>263</v>
-      </c>
-      <c r="G277" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8798,13 +8144,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>333</v>
-      </c>
-      <c r="G278" t="s">
-        <v>334</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8824,13 +8168,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>263</v>
-      </c>
-      <c r="G279" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8850,13 +8192,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>333</v>
-      </c>
-      <c r="G280" t="s">
-        <v>334</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8876,13 +8216,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>263</v>
-      </c>
-      <c r="G281" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8902,13 +8240,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>263</v>
-      </c>
-      <c r="G282" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8928,13 +8264,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>352</v>
-      </c>
-      <c r="G283" t="s">
-        <v>353</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8954,13 +8288,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>352</v>
-      </c>
-      <c r="G284" t="s">
-        <v>353</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8980,13 +8312,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>352</v>
-      </c>
-      <c r="G285" t="s">
-        <v>353</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9006,13 +8336,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>352</v>
-      </c>
-      <c r="G286" t="s">
-        <v>353</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9032,13 +8360,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>352</v>
-      </c>
-      <c r="G287" t="s">
-        <v>353</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9058,13 +8384,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>352</v>
-      </c>
-      <c r="G288" t="s">
-        <v>353</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9084,13 +8408,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>352</v>
-      </c>
-      <c r="G289" t="s">
-        <v>353</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9110,13 +8432,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>263</v>
-      </c>
-      <c r="G290" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9136,13 +8456,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>362</v>
-      </c>
-      <c r="G291" t="s">
-        <v>363</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9162,13 +8480,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>362</v>
-      </c>
-      <c r="G292" t="s">
-        <v>363</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9188,13 +8504,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>362</v>
-      </c>
-      <c r="G293" t="s">
-        <v>363</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9214,13 +8528,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>362</v>
-      </c>
-      <c r="G294" t="s">
-        <v>363</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9240,13 +8552,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>362</v>
-      </c>
-      <c r="G295" t="s">
-        <v>363</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9266,13 +8576,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>362</v>
-      </c>
-      <c r="G296" t="s">
-        <v>363</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9292,13 +8600,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>362</v>
-      </c>
-      <c r="G297" t="s">
-        <v>363</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9318,13 +8624,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>263</v>
-      </c>
-      <c r="G298" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9344,13 +8648,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>362</v>
-      </c>
-      <c r="G299" t="s">
-        <v>363</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9370,13 +8672,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>263</v>
-      </c>
-      <c r="G300" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9396,13 +8696,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>374</v>
-      </c>
-      <c r="G301" t="s">
-        <v>375</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9422,13 +8720,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>374</v>
-      </c>
-      <c r="G302" t="s">
-        <v>375</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9448,13 +8744,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>374</v>
-      </c>
-      <c r="G303" t="s">
-        <v>375</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9474,13 +8768,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>374</v>
-      </c>
-      <c r="G304" t="s">
-        <v>375</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9500,13 +8792,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>374</v>
-      </c>
-      <c r="G305" t="s">
-        <v>375</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9526,13 +8816,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>374</v>
-      </c>
-      <c r="G306" t="s">
-        <v>375</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9552,13 +8840,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>374</v>
-      </c>
-      <c r="G307" t="s">
-        <v>375</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9578,13 +8864,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>374</v>
-      </c>
-      <c r="G308" t="s">
-        <v>375</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9604,13 +8888,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>374</v>
-      </c>
-      <c r="G309" t="s">
-        <v>375</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9630,13 +8912,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>263</v>
-      </c>
-      <c r="G310" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9656,13 +8936,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>374</v>
-      </c>
-      <c r="G311" t="s">
-        <v>375</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9682,13 +8960,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>263</v>
-      </c>
-      <c r="G312" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9708,13 +8984,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>374</v>
-      </c>
-      <c r="G313" t="s">
-        <v>375</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9734,13 +9008,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>374</v>
-      </c>
-      <c r="G314" t="s">
-        <v>375</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9760,13 +9032,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>263</v>
-      </c>
-      <c r="G315" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9786,13 +9056,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>391</v>
-      </c>
-      <c r="G316" t="s">
-        <v>392</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9812,13 +9080,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>391</v>
-      </c>
-      <c r="G317" t="s">
-        <v>392</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9838,13 +9104,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>391</v>
-      </c>
-      <c r="G318" t="s">
-        <v>392</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9864,13 +9128,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>391</v>
-      </c>
-      <c r="G319" t="s">
-        <v>392</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9890,13 +9152,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>391</v>
-      </c>
-      <c r="G320" t="s">
-        <v>392</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9916,13 +9176,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>391</v>
-      </c>
-      <c r="G321" t="s">
-        <v>392</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9942,13 +9200,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>391</v>
-      </c>
-      <c r="G322" t="s">
-        <v>392</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9968,13 +9224,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>391</v>
-      </c>
-      <c r="G323" t="s">
-        <v>392</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9994,13 +9248,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>263</v>
-      </c>
-      <c r="G324" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10020,13 +9272,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>391</v>
-      </c>
-      <c r="G325" t="s">
-        <v>392</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10046,13 +9296,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>263</v>
-      </c>
-      <c r="G326" t="s">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
